--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-110-R01A 清场记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-110-R01A 清场记录.xlsx
@@ -16,33 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>批生产记录填写完整，并归档</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>销毁剩余标签；若本批未结束，剩余标签计数交专人保管</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -65,19 +39,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品定置摆放、清晰标识</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>中间品</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,20 +52,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>剩余膜材称重、标识、定置摆；
-若在下批使用，称重后下批领用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>原辅材料</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,19 +65,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>核实本批用情况，清除下批不用的原辅材料</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>废料</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,19 +78,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>清除本批产生的废料，称重并记录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>工艺文件</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,19 +91,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>清除下批不用工艺文件、记录等</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>标签</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,19 +117,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确认设备状态，清洁设备表面，按程序关机，并切断电源</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>生产现场</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,85 +130,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>清除废弃物、废料</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>现场卫生清洁，包括设备、桌子、推车、工器具、记录夹等；
-并且卫生工具得到清洁并定置摆放</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工器具清点齐全，定置摆放；桌子、推车定置摆放</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清洁传递窗，并关闭</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叉车停放在指定区域</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关好车间灯、门</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>备注：</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,19 +157,6 @@
         <charset val="134"/>
       </rPr>
       <t>清场项目</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清场要点</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,13 +449,17 @@
   </si>
   <si>
     <t>产品批号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清场要点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -945,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,18 +795,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,33 +862,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,7 +882,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1364,393 +1168,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="3" max="3" width="36.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="1"/>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="14"/>
+      <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="30">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16">
         <v>6</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="28"/>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="I5:I20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="H5:H20"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="F5:F20"/>
+    <mergeCell ref="E5:E20"/>
+    <mergeCell ref="A19:D20"/>
     <mergeCell ref="G5:G20"/>
-    <mergeCell ref="A19:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
